--- a/BlackFridayOffer/BlackFridayConfig.xlsx
+++ b/BlackFridayOffer/BlackFridayConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/BlackFridayOffer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524C31EC-A133-6A45-9106-C4273C192E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657A4ABB-18F6-904E-B47E-9EDC80104DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2500" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{B673DD5E-9829-D24C-B00E-EB78B2C06136}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18980" xr2:uid="{B673DD5E-9829-D24C-B00E-EB78B2C06136}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -171,9 +171,6 @@
     <t>红雀</t>
   </si>
   <si>
-    <t>袋鼠球*2</t>
-  </si>
-  <si>
     <t>舵*60</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
     <t>铁球*20</t>
   </si>
   <si>
-    <t>Wooden_wheel*20</t>
-  </si>
-  <si>
     <t>孔雀*2</t>
   </si>
   <si>
@@ -219,9 +213,6 @@
     <t>木轮*12</t>
   </si>
   <si>
-    <t>Moon*20</t>
-  </si>
-  <si>
     <t>Shuttle*2</t>
   </si>
   <si>
@@ -234,9 +225,6 @@
     <t>Moon*12</t>
   </si>
   <si>
-    <t>Lava*20</t>
-  </si>
-  <si>
     <t>prop_type</t>
   </si>
   <si>
@@ -258,17 +246,38 @@
     <t>top_skin</t>
   </si>
   <si>
-    <t>black_friday_offer_title</t>
-  </si>
-  <si>
     <t>Legendary Diamond Chest</t>
+  </si>
+  <si>
+    <t>红雀*1</t>
+  </si>
+  <si>
+    <t>黑五球*4</t>
+  </si>
+  <si>
+    <t>独角兽*2</t>
+  </si>
+  <si>
+    <t>//开启时间</t>
+  </si>
+  <si>
+    <t>//结束时间 - 7天之后</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//更新时间 </t>
+  </si>
+  <si>
+    <t>SuperBowl*1</t>
+  </si>
+  <si>
+    <t>sku_new_year_offer_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -296,6 +305,12 @@
       <sz val="12"/>
       <color rgb="FFB5CEA8"/>
       <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -370,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -406,6 +421,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,8 +739,8 @@
   <dimension ref="A1:AC170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q161" sqref="Q161"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -843,6 +859,9 @@
       <c r="B4" s="22">
         <v>1637424000</v>
       </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" t="s">
@@ -851,6 +870,9 @@
       <c r="B5" s="22">
         <v>1637640275</v>
       </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="6" spans="1:29">
       <c r="A6" t="s">
@@ -858,6 +880,9 @@
       </c>
       <c r="B6" s="22">
         <v>1637769600</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -886,7 +911,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -894,15 +919,15 @@
         <v>9</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>74</v>
+      <c r="B14" s="27" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -915,10 +940,10 @@
     </row>
     <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1047,7 +1072,7 @@
     <row r="27" spans="1:14">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>31</v>
@@ -1215,7 +1240,7 @@
     <row r="34" spans="1:14">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>31</v>
@@ -1245,10 +1270,10 @@
         <v>41</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N34" s="3" t="s">
         <v>34</v>
@@ -1331,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -1342,10 +1367,10 @@
         <v>5</v>
       </c>
       <c r="C38" s="2">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="D38" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -1375,7 +1400,7 @@
         <v>50</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -1419,7 +1444,7 @@
         <v>150</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:14" s="21" customFormat="1">
@@ -1501,7 +1526,7 @@
         <v>150</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -1545,7 +1570,7 @@
         <v>300</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -1671,7 +1696,7 @@
         <v>400</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -1715,7 +1740,7 @@
         <v>400</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -1841,7 +1866,7 @@
         <v>500</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -1849,16 +1874,16 @@
         <v>2</v>
       </c>
       <c r="B53" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C53" s="2">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="D53" s="2">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E53" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F53" s="2">
         <v>0</v>
@@ -1870,7 +1895,7 @@
         <v>310017</v>
       </c>
       <c r="I53" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J53" s="2">
         <v>60</v>
@@ -1885,7 +1910,7 @@
         <v>4.99</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -1929,7 +1954,7 @@
         <v>9.99</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:14" s="21" customFormat="1">
@@ -2011,7 +2036,7 @@
         <v>9.99</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -2055,7 +2080,7 @@
         <v>19.989999999999998</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -2099,7 +2124,7 @@
         <v>29.99</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -2163,7 +2188,7 @@
     <row r="64" spans="1:14">
       <c r="A64" s="4"/>
       <c r="B64" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>31</v>
@@ -2331,7 +2356,7 @@
     <row r="71" spans="1:14">
       <c r="A71" s="4"/>
       <c r="B71" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>31</v>
@@ -2443,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -2454,10 +2479,10 @@
         <v>5</v>
       </c>
       <c r="C75" s="4">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="D75" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75" s="4">
         <v>0</v>
@@ -2487,7 +2512,7 @@
         <v>50</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -2531,7 +2556,7 @@
         <v>150</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:14" s="21" customFormat="1">
@@ -2613,7 +2638,7 @@
         <v>150</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -2657,7 +2682,7 @@
         <v>300</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -2783,7 +2808,7 @@
         <v>400</v>
       </c>
       <c r="N84" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -2827,7 +2852,7 @@
         <v>400</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -2953,7 +2978,7 @@
         <v>500</v>
       </c>
       <c r="N89" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -2961,16 +2986,16 @@
         <v>2</v>
       </c>
       <c r="B90" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C90" s="4">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="D90" s="4">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E90" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F90" s="4">
         <v>0</v>
@@ -2982,7 +3007,7 @@
         <v>310017</v>
       </c>
       <c r="I90" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J90" s="4">
         <v>60</v>
@@ -2997,7 +3022,7 @@
         <v>4.99</v>
       </c>
       <c r="N90" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -3041,7 +3066,7 @@
         <v>9.99</v>
       </c>
       <c r="N91" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:14" s="21" customFormat="1">
@@ -3123,7 +3148,7 @@
         <v>9.99</v>
       </c>
       <c r="N94" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -3167,7 +3192,7 @@
         <v>19.989999999999998</v>
       </c>
       <c r="N95" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -3211,7 +3236,7 @@
         <v>29.99</v>
       </c>
       <c r="N96" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -3275,7 +3300,7 @@
     <row r="101" spans="1:14">
       <c r="A101" s="6"/>
       <c r="B101" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>31</v>
@@ -3320,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
@@ -3443,7 +3468,7 @@
     <row r="108" spans="1:14">
       <c r="A108" s="6"/>
       <c r="B108" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>31</v>
@@ -3555,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="N111" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -3566,10 +3591,10 @@
         <v>5</v>
       </c>
       <c r="C112" s="6">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="D112" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E112" s="6">
         <v>0</v>
@@ -3599,7 +3624,7 @@
         <v>50</v>
       </c>
       <c r="N112" s="7" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -3643,7 +3668,7 @@
         <v>150</v>
       </c>
       <c r="N113" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="114" spans="1:14" s="21" customFormat="1">
@@ -3725,7 +3750,7 @@
         <v>150</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -3769,7 +3794,7 @@
         <v>300</v>
       </c>
       <c r="N117" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -3813,7 +3838,7 @@
         <v>500</v>
       </c>
       <c r="N118" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="119" spans="1:14" s="21" customFormat="1">
@@ -3895,7 +3920,7 @@
         <v>400</v>
       </c>
       <c r="N121" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -3939,7 +3964,7 @@
         <v>400</v>
       </c>
       <c r="N122" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -4065,26 +4090,26 @@
         <v>500</v>
       </c>
       <c r="N126" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="6">
         <v>2</v>
       </c>
-      <c r="B127" s="6">
-        <v>4</v>
-      </c>
-      <c r="C127" s="6">
-        <v>32</v>
-      </c>
-      <c r="D127" s="6">
-        <v>20</v>
-      </c>
-      <c r="E127" s="6">
-        <v>3</v>
-      </c>
-      <c r="F127" s="6">
+      <c r="B127" s="14">
+        <v>5</v>
+      </c>
+      <c r="C127" s="14">
+        <v>224</v>
+      </c>
+      <c r="D127" s="14">
+        <v>4</v>
+      </c>
+      <c r="E127" s="14">
+        <v>0</v>
+      </c>
+      <c r="F127" s="14">
         <v>0</v>
       </c>
       <c r="G127" s="6">
@@ -4094,7 +4119,7 @@
         <v>310017</v>
       </c>
       <c r="I127" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J127" s="6">
         <v>60</v>
@@ -4109,26 +4134,26 @@
         <v>4.99</v>
       </c>
       <c r="N127" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="6">
         <v>3</v>
       </c>
-      <c r="B128" s="6">
-        <v>4</v>
-      </c>
-      <c r="C128" s="6">
+      <c r="B128" s="14">
+        <v>4</v>
+      </c>
+      <c r="C128" s="14">
         <v>40</v>
       </c>
-      <c r="D128" s="6">
-        <v>2</v>
-      </c>
-      <c r="E128" s="6">
-        <v>4</v>
-      </c>
-      <c r="F128" s="6">
+      <c r="D128" s="14">
+        <v>2</v>
+      </c>
+      <c r="E128" s="14">
+        <v>4</v>
+      </c>
+      <c r="F128" s="14">
         <v>0</v>
       </c>
       <c r="G128" s="6">
@@ -4153,7 +4178,7 @@
         <v>9.99</v>
       </c>
       <c r="N128" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="129" spans="1:14" s="21" customFormat="1">
@@ -4235,7 +4260,7 @@
         <v>9.99</v>
       </c>
       <c r="N131" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -4279,7 +4304,7 @@
         <v>19.989999999999998</v>
       </c>
       <c r="N132" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -4323,7 +4348,7 @@
         <v>29.99</v>
       </c>
       <c r="N133" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -4387,7 +4412,7 @@
     <row r="138" spans="1:14">
       <c r="A138" s="10"/>
       <c r="B138" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C138" s="11" t="s">
         <v>31</v>
@@ -4420,7 +4445,7 @@
         <v>4</v>
       </c>
       <c r="C139" s="10">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D139" s="10">
         <v>1</v>
@@ -4432,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H139" s="10"/>
       <c r="I139" s="10"/>
@@ -4492,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H141" s="10"/>
       <c r="I141" s="10"/>
@@ -4508,7 +4533,7 @@
       <c r="C142" s="20"/>
       <c r="D142" s="20"/>
       <c r="E142" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F142" s="20"/>
       <c r="G142" s="20"/>
@@ -4557,7 +4582,7 @@
     <row r="145" spans="1:14">
       <c r="A145" s="10"/>
       <c r="B145" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C145" s="11" t="s">
         <v>31</v>
@@ -4669,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="N148" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -4680,10 +4705,10 @@
         <v>5</v>
       </c>
       <c r="C149" s="10">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="D149" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E149" s="10">
         <v>0</v>
@@ -4713,7 +4738,7 @@
         <v>50</v>
       </c>
       <c r="N149" s="11" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -4757,7 +4782,7 @@
         <v>150</v>
       </c>
       <c r="N150" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="151" spans="1:14" s="21" customFormat="1">
@@ -4839,7 +4864,7 @@
         <v>150</v>
       </c>
       <c r="N153" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -4883,7 +4908,7 @@
         <v>300</v>
       </c>
       <c r="N154" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -4894,7 +4919,7 @@
         <v>4</v>
       </c>
       <c r="C155" s="10">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D155" s="10">
         <v>1</v>
@@ -4927,7 +4952,7 @@
         <v>500</v>
       </c>
       <c r="N155" s="11" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="156" spans="1:14" s="21" customFormat="1">
@@ -5009,7 +5034,7 @@
         <v>400</v>
       </c>
       <c r="N158" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -5053,7 +5078,7 @@
         <v>400</v>
       </c>
       <c r="N159" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -5097,7 +5122,7 @@
         <v>4.99</v>
       </c>
       <c r="N160" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="161" spans="1:14" s="21" customFormat="1">
@@ -5179,7 +5204,7 @@
         <v>500</v>
       </c>
       <c r="N163" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -5187,16 +5212,16 @@
         <v>2</v>
       </c>
       <c r="B164" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C164" s="10">
-        <v>55</v>
+        <v>224</v>
       </c>
       <c r="D164" s="10">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E164" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F164" s="10">
         <v>0</v>
@@ -5208,7 +5233,7 @@
         <v>310017</v>
       </c>
       <c r="I164" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J164" s="10">
         <v>60</v>
@@ -5223,7 +5248,7 @@
         <v>4.99</v>
       </c>
       <c r="N164" s="11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -5234,7 +5259,7 @@
         <v>4</v>
       </c>
       <c r="C165" s="10">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D165" s="10">
         <v>2</v>
@@ -5267,7 +5292,7 @@
         <v>9.99</v>
       </c>
       <c r="N165" s="11" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="166" spans="1:14" s="21" customFormat="1">
@@ -5349,7 +5374,7 @@
         <v>9.99</v>
       </c>
       <c r="N168" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -5393,7 +5418,7 @@
         <v>19.989999999999998</v>
       </c>
       <c r="N169" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -5437,7 +5462,7 @@
         <v>29.99</v>
       </c>
       <c r="N170" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
